--- a/[A0823I1]_Comment_James_Exercises_Module_1.xlsx
+++ b/[A0823I1]_Comment_James_Exercises_Module_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mobifone888-my.sharepoint.com/personal/nghiem_nguyen_mobifone_vn/Documents/CodeGym/Bai tap Codegym/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_47BEA1605776D63029FB4A3A22E812571C9C4E18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB08B166-E767-4A7D-B0C0-2D21BE9931A1}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_47BEA1605776D63029FB4A3A22E812571C9C4E18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC64F0F-12CF-4DEE-9F6D-E11880CF1E44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="752">
   <si>
     <t>Chưa review</t>
   </si>
@@ -2289,12 +2289,165 @@
   <si>
     <t>Có nhiều bài tập con nên nộp link folder</t>
   </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%203%20-%20Flowchart%20%26%20Pseudo%20Code/Bai%20tap_Tinh%20diem%20trung%20binh.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%203%20-%20Flowchart%20%26%20Pseudo%20Code/B%C3%A0i%20t%E1%BA%ADp_Chuyen%20doi%20tien%20te.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%203%20-%20Flowchart%20%26%20Pseudo%20Code/B%C3%A0i%20t%E1%BA%ADp_So%20sanh%203%20so.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%203%20-%20Flowchart%20%26%20Pseudo%20Code/B%C3%A0i%20t%E1%BA%ADp_Tim%20so%20lon%20nhat%20trong%20day%20so.docx</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%204%20-%20Git%20%26%20HTML/Baitap_TaoCV.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%204%20-%20Git%20%26%20HTML/Baitap_TaoDanhSach.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/tree/main/Module%201/Session%205%20-%20Forms%20%26%20Table/Bai%20tap_Tao%20bang%20don%20gian</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/tree/main/Module%201/Session%205%20-%20Forms%20%26%20Table/Bai%20tap_Tao%20form%20don%20gian</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%205%20-%20Forms%20%26%20Table/BaiTap_T%E1%BA%A1o%20form%20survey%20KH.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%205%20-%20Forms%20%26%20Table/BaiTap_T%E1%BA%A1o%20giao%20di%E1%BB%87n%20form%20%C4%91%C4%83ng%20k%C3%BD%20ng%C6%B0%E1%BB%9Di%20d%C3%B9ng.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/tree/main/Module%201/Session%205%20-%20Forms%20%26%20Table/Bai%20tap_Tao%20bang%20nang%20cao</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/tree/main/Module%201/Session%207%20-%20Variable%20Const%20Operator/Bai%201%20-%20Bien_Kieu%20du%20lieu_Toan%20tu</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%207%20-%20Variable%20Const%20Operator/Bai%202_Chuyen%20doi%20tien%20te.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%207%20-%20Variable%20Const%20Operator/Bai%203_Ung%20dung%20May%20tinh%20don%20gian.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Bai%20tap%201_%20Chi%20so%20BMI.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Bai%20tap%202_%20So%20thang%20trong%20nam.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Bai%20tap%203_Ung%20dung%20May%20tinh%20don%20gian.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%201.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%202.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%203.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%204.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%205.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%206.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%201_%20Bai%207.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%201.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%202.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%203.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%204.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%205.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%206.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%207.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%208.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%209.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%2010.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%2011.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%208%20-%20Conditional%20Statement/Ph%E1%BA%A7n%202/Luyen%20tap%202_Bai%2012.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/B%C3%A0i%20t%E1%BA%ADp%201_Sinh%20b%E1%BA%A3ng%20c%E1%BB%ADu%20ch%C6%B0%C6%A1ng.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/B%C3%A0i%20t%E1%BA%ADp%202_Sinh%20s%E1%BB%91%20nguy%C3%AAn%20t%E1%BB%91.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%201.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%202.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%203.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%204.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%205.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%206.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%207.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%201_B%C3%A0i%208.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%202_B%C3%A0i%201.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%202_B%C3%A0i%202.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%202_B%C3%A0i%203.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%202_B%C3%A0i%204.html</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyensongnghiem/C0823L1-JV105_NguyenSongNghiem/blob/main/Module%201/Session%209%20-%20Loop/C%E1%BA%A5u%20tr%C3%BAc%20l%E1%BA%B7p%202/Luy%E1%BB%87n%20t%E1%BA%ADp%202_B%C3%A0i%205.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,6 +2670,13 @@
       <sz val="11"/>
       <color rgb="FF274E13"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2760,10 +2920,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2935,8 +3096,12 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="124">
@@ -11033,10 +11198,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11115,7 +11280,7 @@
       </c>
       <c r="L2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
@@ -11219,7 +11384,7 @@
       </c>
       <c r="E4" s="21">
         <f t="shared" ref="E4:E5" si="2">COUNTIF(F5:Q5, "&lt;&gt;")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>30</v>
@@ -11239,7 +11404,9 @@
       <c r="K4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>701</v>
+      </c>
       <c r="M4" s="23" t="s">
         <v>36</v>
       </c>
@@ -11273,7 +11440,7 @@
       </c>
       <c r="E5" s="21">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>43</v>
@@ -11293,7 +11460,9 @@
       <c r="K5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="23" t="s">
+        <v>702</v>
+      </c>
       <c r="M5" s="23" t="s">
         <v>49</v>
       </c>
@@ -11327,7 +11496,7 @@
       </c>
       <c r="E6" s="21">
         <f t="shared" ref="E6:E39" si="3">COUNTIF(F6:Q6, "&lt;&gt;")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>56</v>
@@ -11347,7 +11516,9 @@
       <c r="K6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23" t="s">
+        <v>703</v>
+      </c>
       <c r="M6" s="23" t="s">
         <v>62</v>
       </c>
@@ -11381,7 +11552,7 @@
       </c>
       <c r="E7" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>69</v>
@@ -11399,7 +11570,9 @@
         <v>73</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>704</v>
+      </c>
       <c r="M7" s="23" t="s">
         <v>74</v>
       </c>
@@ -11433,7 +11606,7 @@
       </c>
       <c r="E8" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>81</v>
@@ -11453,7 +11626,9 @@
       <c r="K8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="25" t="s">
+        <v>706</v>
+      </c>
       <c r="M8" s="27" t="s">
         <v>87</v>
       </c>
@@ -11487,7 +11662,7 @@
       </c>
       <c r="E9" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="32" t="s">
         <v>94</v>
@@ -11507,7 +11682,9 @@
       <c r="K9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27" t="s">
+        <v>705</v>
+      </c>
       <c r="M9" s="27" t="s">
         <v>100</v>
       </c>
@@ -11543,7 +11720,7 @@
       </c>
       <c r="E10" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>107</v>
@@ -11561,7 +11738,9 @@
       <c r="K10" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27" t="s">
+        <v>708</v>
+      </c>
       <c r="M10" s="27" t="s">
         <v>112</v>
       </c>
@@ -11597,7 +11776,7 @@
       </c>
       <c r="E11" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>120</v>
@@ -11617,7 +11796,9 @@
       <c r="K11" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27" t="s">
+        <v>709</v>
+      </c>
       <c r="M11" s="27" t="s">
         <v>126</v>
       </c>
@@ -11653,7 +11834,7 @@
       </c>
       <c r="E12" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>134</v>
@@ -11673,7 +11854,9 @@
       <c r="K12" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="27" t="s">
+        <v>710</v>
+      </c>
       <c r="M12" s="27" t="s">
         <v>140</v>
       </c>
@@ -11707,7 +11890,7 @@
       </c>
       <c r="E13" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>147</v>
@@ -11727,7 +11910,9 @@
       <c r="K13" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>707</v>
+      </c>
       <c r="M13" s="27" t="s">
         <v>152</v>
       </c>
@@ -11763,7 +11948,7 @@
       </c>
       <c r="E14" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>160</v>
@@ -11781,7 +11966,9 @@
       <c r="K14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="L14" s="27" t="s">
+        <v>711</v>
+      </c>
       <c r="M14" s="27" t="s">
         <v>165</v>
       </c>
@@ -11817,7 +12004,7 @@
       </c>
       <c r="E15" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>173</v>
@@ -11837,7 +12024,9 @@
       <c r="K15" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="L15" s="27" t="s">
+        <v>712</v>
+      </c>
       <c r="M15" s="24" t="s">
         <v>179</v>
       </c>
@@ -11873,7 +12062,7 @@
       </c>
       <c r="E16" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>187</v>
@@ -11893,7 +12082,9 @@
       <c r="K16" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="27"/>
+      <c r="L16" s="27" t="s">
+        <v>713</v>
+      </c>
       <c r="M16" s="27" t="s">
         <v>193</v>
       </c>
@@ -11929,7 +12120,7 @@
       </c>
       <c r="E17" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>201</v>
@@ -11947,7 +12138,9 @@
       <c r="K17" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="27" t="s">
+        <v>714</v>
+      </c>
       <c r="M17" s="27" t="s">
         <v>206</v>
       </c>
@@ -11983,7 +12176,7 @@
       </c>
       <c r="E18" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>201</v>
@@ -12003,7 +12196,9 @@
       <c r="K18" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27" t="s">
+        <v>715</v>
+      </c>
       <c r="M18" s="27" t="s">
         <v>219</v>
       </c>
@@ -12039,7 +12234,7 @@
       </c>
       <c r="E19" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="27" t="s">
         <v>227</v>
@@ -12059,7 +12254,9 @@
       <c r="K19" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27" t="s">
+        <v>716</v>
+      </c>
       <c r="M19" s="27" t="s">
         <v>233</v>
       </c>
@@ -12095,7 +12292,7 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="27" t="s">
         <v>241</v>
@@ -12113,7 +12310,9 @@
       <c r="K20" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27" t="s">
+        <v>717</v>
+      </c>
       <c r="M20" s="27" t="s">
         <v>246</v>
       </c>
@@ -12145,7 +12344,7 @@
       </c>
       <c r="E21" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>251</v>
@@ -12163,7 +12362,9 @@
       <c r="K21" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27" t="s">
+        <v>718</v>
+      </c>
       <c r="M21" s="42" t="s">
         <v>256</v>
       </c>
@@ -12197,7 +12398,7 @@
       </c>
       <c r="E22" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="27" t="s">
         <v>263</v>
@@ -12215,7 +12416,9 @@
       <c r="K22" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="27"/>
+      <c r="L22" s="27" t="s">
+        <v>719</v>
+      </c>
       <c r="M22" s="42" t="s">
         <v>268</v>
       </c>
@@ -12249,7 +12452,7 @@
       </c>
       <c r="E23" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>275</v>
@@ -12267,7 +12470,9 @@
       <c r="K23" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="27" t="s">
+        <v>720</v>
+      </c>
       <c r="M23" s="42" t="s">
         <v>280</v>
       </c>
@@ -12301,7 +12506,7 @@
       </c>
       <c r="E24" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>287</v>
@@ -12319,7 +12524,9 @@
       <c r="K24" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="L24" s="27"/>
+      <c r="L24" s="27" t="s">
+        <v>721</v>
+      </c>
       <c r="M24" s="42" t="s">
         <v>292</v>
       </c>
@@ -12353,7 +12560,7 @@
       </c>
       <c r="E25" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>299</v>
@@ -12371,7 +12578,9 @@
       <c r="K25" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="L25" s="27"/>
+      <c r="L25" s="27" t="s">
+        <v>722</v>
+      </c>
       <c r="M25" s="42" t="s">
         <v>304</v>
       </c>
@@ -12405,7 +12614,7 @@
       </c>
       <c r="E26" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>311</v>
@@ -12423,7 +12632,9 @@
       <c r="K26" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="L26" s="27"/>
+      <c r="L26" s="27" t="s">
+        <v>723</v>
+      </c>
       <c r="M26" s="42" t="s">
         <v>316</v>
       </c>
@@ -12457,7 +12668,7 @@
       </c>
       <c r="E27" s="21">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>323</v>
@@ -12475,7 +12686,9 @@
       <c r="K27" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="L27" s="27"/>
+      <c r="L27" s="27" t="s">
+        <v>724</v>
+      </c>
       <c r="M27" s="42" t="s">
         <v>328</v>
       </c>
@@ -12507,7 +12720,7 @@
       </c>
       <c r="E28" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="27" t="s">
         <v>334</v>
@@ -12523,7 +12736,9 @@
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="25"/>
+      <c r="L28" s="25" t="s">
+        <v>725</v>
+      </c>
       <c r="M28" s="28"/>
       <c r="N28" s="31"/>
       <c r="O28" s="27" t="s">
@@ -12555,7 +12770,7 @@
       </c>
       <c r="E29" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>344</v>
@@ -12571,7 +12786,9 @@
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="27"/>
+      <c r="L29" s="27" t="s">
+        <v>726</v>
+      </c>
       <c r="M29" s="28"/>
       <c r="N29" s="31"/>
       <c r="O29" s="27" t="s">
@@ -12603,7 +12820,7 @@
       </c>
       <c r="E30" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" s="27" t="s">
         <v>354</v>
@@ -12619,7 +12836,9 @@
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="27"/>
+      <c r="L30" s="63" t="s">
+        <v>727</v>
+      </c>
       <c r="M30" s="28"/>
       <c r="N30" s="31"/>
       <c r="O30" s="27" t="s">
@@ -12651,7 +12870,7 @@
       </c>
       <c r="E31" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>364</v>
@@ -12667,7 +12886,9 @@
       </c>
       <c r="J31" s="31"/>
       <c r="K31" s="28"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="27" t="s">
+        <v>728</v>
+      </c>
       <c r="M31" s="28"/>
       <c r="N31" s="31"/>
       <c r="O31" s="25" t="s">
@@ -12699,7 +12920,7 @@
       </c>
       <c r="E32" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="27" t="s">
         <v>374</v>
@@ -12715,7 +12936,9 @@
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="28"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="27" t="s">
+        <v>729</v>
+      </c>
       <c r="M32" s="28"/>
       <c r="N32" s="31"/>
       <c r="O32" s="27" t="s">
@@ -12747,7 +12970,7 @@
       </c>
       <c r="E33" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="27" t="s">
         <v>384</v>
@@ -12763,7 +12986,9 @@
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="28"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="27" t="s">
+        <v>730</v>
+      </c>
       <c r="M33" s="28"/>
       <c r="N33" s="44"/>
       <c r="O33" s="27" t="s">
@@ -12795,7 +13020,7 @@
       </c>
       <c r="E34" s="21">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>394</v>
@@ -12811,7 +13036,9 @@
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="28"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="27" t="s">
+        <v>731</v>
+      </c>
       <c r="M34" s="28"/>
       <c r="N34" s="31"/>
       <c r="O34" s="27" t="s">
@@ -12843,7 +13070,7 @@
       </c>
       <c r="E35" s="21">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="27" t="s">
         <v>404</v>
@@ -12857,7 +13084,9 @@
       </c>
       <c r="J35" s="31"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="27"/>
+      <c r="L35" s="27" t="s">
+        <v>732</v>
+      </c>
       <c r="M35" s="28"/>
       <c r="N35" s="31"/>
       <c r="O35" s="25" t="s">
@@ -12889,7 +13118,7 @@
       </c>
       <c r="E36" s="21">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>413</v>
@@ -12903,7 +13132,9 @@
       </c>
       <c r="J36" s="31"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="27"/>
+      <c r="L36" s="27" t="s">
+        <v>733</v>
+      </c>
       <c r="M36" s="28"/>
       <c r="N36" s="31"/>
       <c r="O36" s="27" t="s">
@@ -12935,7 +13166,7 @@
       </c>
       <c r="E37" s="21">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>422</v>
@@ -12949,7 +13180,9 @@
       </c>
       <c r="J37" s="31"/>
       <c r="K37" s="28"/>
-      <c r="L37" s="27"/>
+      <c r="L37" s="27" t="s">
+        <v>734</v>
+      </c>
       <c r="M37" s="28"/>
       <c r="N37" s="31"/>
       <c r="O37" s="27" t="s">
@@ -12979,7 +13212,7 @@
       </c>
       <c r="E38" s="21">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>430</v>
@@ -12993,7 +13226,9 @@
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="28"/>
-      <c r="L38" s="27"/>
+      <c r="L38" s="27" t="s">
+        <v>735</v>
+      </c>
       <c r="M38" s="28"/>
       <c r="N38" s="31"/>
       <c r="O38" s="27" t="s">
@@ -13023,7 +13258,7 @@
       </c>
       <c r="E39" s="21">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F39" s="27" t="s">
         <v>438</v>
@@ -13037,7 +13272,9 @@
       </c>
       <c r="J39" s="31"/>
       <c r="K39" s="28"/>
-      <c r="L39" s="27"/>
+      <c r="L39" s="27" t="s">
+        <v>736</v>
+      </c>
       <c r="M39" s="28"/>
       <c r="N39" s="31"/>
       <c r="O39" s="25" t="s">
@@ -13067,7 +13304,7 @@
       </c>
       <c r="E40" s="21">
         <f t="shared" ref="E40:E93" si="4">COUNTIF(F40:S40, "&lt;&gt;")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>446</v>
@@ -13085,7 +13322,9 @@
       <c r="K40" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="L40" s="27"/>
+      <c r="L40" s="27" t="s">
+        <v>737</v>
+      </c>
       <c r="M40" s="25" t="s">
         <v>451</v>
       </c>
@@ -13119,7 +13358,7 @@
       </c>
       <c r="E41" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" s="27" t="s">
         <v>458</v>
@@ -13137,7 +13376,9 @@
       <c r="K41" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="L41" s="27"/>
+      <c r="L41" s="27" t="s">
+        <v>738</v>
+      </c>
       <c r="M41" s="27" t="s">
         <v>463</v>
       </c>
@@ -13169,7 +13410,7 @@
       </c>
       <c r="E42" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="27" t="s">
         <v>469</v>
@@ -13187,7 +13428,9 @@
       <c r="K42" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="L42" s="27"/>
+      <c r="L42" s="27" t="s">
+        <v>739</v>
+      </c>
       <c r="M42" s="27" t="s">
         <v>474</v>
       </c>
@@ -13221,7 +13464,7 @@
       </c>
       <c r="E43" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>481</v>
@@ -13239,7 +13482,9 @@
       <c r="K43" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="L43" s="27"/>
+      <c r="L43" s="27" t="s">
+        <v>740</v>
+      </c>
       <c r="M43" s="27" t="s">
         <v>486</v>
       </c>
@@ -13273,7 +13518,7 @@
       </c>
       <c r="E44" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="27" t="s">
         <v>493</v>
@@ -13291,7 +13536,9 @@
       <c r="K44" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="L44" s="27"/>
+      <c r="L44" s="27" t="s">
+        <v>741</v>
+      </c>
       <c r="M44" s="27" t="s">
         <v>498</v>
       </c>
@@ -13325,7 +13572,7 @@
       </c>
       <c r="E45" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" s="27" t="s">
         <v>505</v>
@@ -13343,7 +13590,9 @@
       <c r="K45" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="L45" s="27"/>
+      <c r="L45" s="27" t="s">
+        <v>742</v>
+      </c>
       <c r="M45" s="27" t="s">
         <v>510</v>
       </c>
@@ -13375,7 +13624,7 @@
       </c>
       <c r="E46" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>516</v>
@@ -13393,7 +13642,9 @@
       <c r="K46" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="L46" s="27"/>
+      <c r="L46" s="27" t="s">
+        <v>743</v>
+      </c>
       <c r="M46" s="27" t="s">
         <v>521</v>
       </c>
@@ -13427,7 +13678,7 @@
       </c>
       <c r="E47" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="27" t="s">
         <v>528</v>
@@ -13445,7 +13696,9 @@
       <c r="K47" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="L47" s="27"/>
+      <c r="L47" s="27" t="s">
+        <v>744</v>
+      </c>
       <c r="M47" s="27" t="s">
         <v>533</v>
       </c>
@@ -13479,7 +13732,7 @@
       </c>
       <c r="E48" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>540</v>
@@ -13495,7 +13748,9 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="27"/>
+      <c r="L48" s="27" t="s">
+        <v>745</v>
+      </c>
       <c r="M48" s="27" t="s">
         <v>544</v>
       </c>
@@ -13529,7 +13784,7 @@
       </c>
       <c r="E49" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" s="27" t="s">
         <v>551</v>
@@ -13547,7 +13802,9 @@
       <c r="K49" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="L49" s="27"/>
+      <c r="L49" s="27" t="s">
+        <v>746</v>
+      </c>
       <c r="M49" s="27" t="s">
         <v>556</v>
       </c>
@@ -13579,7 +13836,7 @@
       </c>
       <c r="E50" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>562</v>
@@ -13597,7 +13854,9 @@
       <c r="K50" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="L50" s="27"/>
+      <c r="L50" s="27" t="s">
+        <v>747</v>
+      </c>
       <c r="M50" s="27" t="s">
         <v>567</v>
       </c>
@@ -13631,7 +13890,7 @@
       </c>
       <c r="E51" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>574</v>
@@ -13649,7 +13908,9 @@
       <c r="K51" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="L51" s="27"/>
+      <c r="L51" s="27" t="s">
+        <v>748</v>
+      </c>
       <c r="M51" s="27" t="s">
         <v>579</v>
       </c>
@@ -13683,7 +13944,7 @@
       </c>
       <c r="E52" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>585</v>
@@ -13701,7 +13962,9 @@
       <c r="K52" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="L52" s="27"/>
+      <c r="L52" s="27" t="s">
+        <v>749</v>
+      </c>
       <c r="M52" s="27" t="s">
         <v>590</v>
       </c>
@@ -13735,7 +13998,7 @@
       </c>
       <c r="E53" s="21">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>597</v>
@@ -13753,7 +14016,9 @@
       <c r="K53" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="L53" s="27"/>
+      <c r="L53" s="27" t="s">
+        <v>750</v>
+      </c>
       <c r="M53" s="27" t="s">
         <v>602</v>
       </c>
@@ -13787,7 +14052,7 @@
       </c>
       <c r="E54" s="21">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>609</v>
@@ -13803,7 +14068,9 @@
       </c>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
-      <c r="L54" s="25"/>
+      <c r="L54" s="25" t="s">
+        <v>751</v>
+      </c>
       <c r="M54" s="27" t="s">
         <v>613</v>
       </c>
@@ -20663,6 +20930,7 @@
     <hyperlink ref="P54" r:id="rId537" xr:uid="{00000000-0004-0000-0100-00004B020000}"/>
     <hyperlink ref="Q54" r:id="rId538" xr:uid="{00000000-0004-0000-0100-00004C020000}"/>
     <hyperlink ref="S54" r:id="rId539" xr:uid="{00000000-0004-0000-0100-00004D020000}"/>
+    <hyperlink ref="L30" r:id="rId540" xr:uid="{F3AC27FC-19B9-4492-AE8F-673F69F1539E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
